--- a/docs/StructureDefinition-VAMedication.xlsx
+++ b/docs/StructureDefinition-VAMedication.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="531">
   <si>
     <t>Path</t>
   </si>
@@ -319,21 +319,21 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -342,17 +342,10 @@
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -604,9 +597,6 @@
   </si>
   <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -866,7 +856,14 @@
     <t>MedicationDispense.dosageInstruction.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.sequence</t>
@@ -2791,7 +2788,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2810,15 +2807,17 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2855,14 +2854,16 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>102</v>
@@ -2886,7 +2887,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2901,7 +2902,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2920,16 +2921,16 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2979,7 +2980,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -3011,7 +3012,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3034,13 +3035,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3091,7 +3092,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -3109,13 +3110,13 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3146,13 +3147,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3203,7 +3204,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3221,10 +3222,10 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>41</v>
@@ -3235,7 +3236,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3261,13 +3262,13 @@
         <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3293,55 +3294,55 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -3349,7 +3350,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3372,13 +3373,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3405,52 +3406,52 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>41</v>
@@ -3461,7 +3462,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3484,16 +3485,16 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3531,52 +3532,52 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>41</v>
@@ -3598,16 +3599,16 @@
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3657,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>52</v>
@@ -3675,21 +3676,21 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3712,16 +3713,16 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3771,7 +3772,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3789,21 +3790,21 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3826,13 +3827,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3883,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3901,10 +3902,10 @@
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3938,13 +3939,13 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3995,7 +3996,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4016,10 +4017,10 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4050,16 +4051,16 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4109,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4121,16 +4122,16 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4141,7 +4142,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4164,13 +4165,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4221,7 +4222,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4242,7 +4243,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4253,11 +4254,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4276,16 +4277,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4335,7 +4336,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4356,7 +4357,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4367,11 +4368,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4390,16 +4391,16 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4449,7 +4450,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4481,7 +4482,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4504,13 +4505,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4561,7 +4562,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>52</v>
@@ -4579,10 +4580,10 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>41</v>
@@ -4593,7 +4594,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4616,13 +4617,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4673,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4691,10 +4692,10 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4728,16 +4729,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4787,7 +4788,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4805,21 +4806,21 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4842,13 +4843,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4875,63 +4876,63 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>221</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4954,13 +4955,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5011,7 +5012,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5032,18 +5033,18 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5066,13 +5067,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5123,39 +5124,39 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5178,13 +5179,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5235,7 +5236,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5256,18 +5257,18 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5290,13 +5291,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5347,39 +5348,39 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5402,13 +5403,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5459,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5480,18 +5481,18 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5514,13 +5515,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5571,7 +5572,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5592,7 +5593,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5603,7 +5604,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5626,13 +5627,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5683,7 +5684,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5701,21 +5702,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5738,16 +5739,16 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5797,7 +5798,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5818,7 +5819,7 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5829,7 +5830,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5852,13 +5853,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5909,7 +5910,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5930,7 +5931,7 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5941,11 +5942,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5964,16 +5965,16 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6011,19 +6012,19 @@
         <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6044,7 +6045,7 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6078,17 +6079,17 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6137,28 +6138,28 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -6169,7 +6170,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6192,17 +6193,17 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6251,7 +6252,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6272,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6283,7 +6284,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6306,17 +6307,17 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -6341,31 +6342,31 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6386,7 +6387,7 @@
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6397,7 +6398,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6420,13 +6421,13 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6477,7 +6478,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6498,7 +6499,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
@@ -6509,7 +6510,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6532,19 +6533,19 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6593,28 +6594,28 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6625,7 +6626,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6648,13 +6649,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6705,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6726,7 +6727,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6737,11 +6738,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6760,16 +6761,16 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6807,19 +6808,19 @@
         <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6840,7 +6841,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6851,7 +6852,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6874,17 +6875,17 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6933,7 +6934,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6954,7 +6955,7 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6965,7 +6966,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6988,17 +6989,17 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7047,28 +7048,28 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI46" t="s" s="2">
+      <c r="AJ46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7079,7 +7080,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7102,13 +7103,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7159,7 +7160,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7180,7 +7181,7 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7191,11 +7192,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7214,16 +7215,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7261,19 +7262,19 @@
         <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7294,7 +7295,7 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7305,7 +7306,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7328,13 +7329,13 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7385,28 +7386,28 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7417,7 +7418,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7440,13 +7441,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7497,7 +7498,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7518,7 +7519,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7529,11 +7530,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7552,16 +7553,16 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7599,16 +7600,16 @@
         <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
@@ -7628,7 +7629,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7639,7 +7640,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7662,19 +7663,19 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7723,28 +7724,28 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7755,7 +7756,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7778,13 +7779,13 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7835,7 +7836,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7856,7 +7857,7 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7867,7 +7868,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7890,19 +7891,19 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7951,28 +7952,28 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7983,7 +7984,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8006,19 +8007,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8067,7 +8068,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8088,7 +8089,7 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8099,7 +8100,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8125,10 +8126,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8155,52 +8156,52 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8211,7 +8212,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8234,13 +8235,13 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8291,7 +8292,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8312,7 +8313,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8323,7 +8324,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8346,13 +8347,13 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8403,7 +8404,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8424,7 +8425,7 @@
         <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8435,7 +8436,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8458,13 +8459,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8515,7 +8516,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8536,7 +8537,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8547,7 +8548,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8570,13 +8571,13 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8627,7 +8628,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8648,7 +8649,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8659,7 +8660,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8685,10 +8686,10 @@
         <v>71</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8715,14 +8716,14 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8760,7 +8761,7 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8771,7 +8772,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8797,13 +8798,13 @@
         <v>71</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8829,29 +8830,29 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8872,7 +8873,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8883,7 +8884,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8906,16 +8907,16 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8965,7 +8966,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8986,7 +8987,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8997,7 +8998,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9023,16 +9024,16 @@
         <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
@@ -9057,31 +9058,31 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9102,7 +9103,7 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9113,7 +9114,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9136,13 +9137,13 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9193,28 +9194,28 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9225,7 +9226,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9248,16 +9249,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9283,52 +9284,52 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y66" t="s" s="2">
+      <c r="Z66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE66" t="s" s="2">
+      <c r="AF66" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9339,7 +9340,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9362,16 +9363,16 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9397,52 +9398,52 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE67" t="s" s="2">
+      <c r="AF67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9453,7 +9454,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9476,19 +9477,19 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>41</v>
@@ -9513,52 +9514,52 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9569,7 +9570,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9592,17 +9593,17 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>41</v>
@@ -9627,52 +9628,52 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Z69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9683,7 +9684,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9706,19 +9707,19 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9743,52 +9744,52 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE70" t="s" s="2">
+      <c r="AF70" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9799,7 +9800,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9822,19 +9823,19 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9883,7 +9884,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9904,7 +9905,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9915,7 +9916,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9938,19 +9939,19 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9999,28 +10000,28 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10031,7 +10032,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10054,19 +10055,19 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -10115,28 +10116,28 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10147,7 +10148,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10170,17 +10171,17 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10229,7 +10230,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10250,7 +10251,7 @@
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10261,7 +10262,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10284,19 +10285,19 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10345,28 +10346,28 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10377,7 +10378,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10400,13 +10401,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10457,7 +10458,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10469,7 +10470,7 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10478,7 +10479,7 @@
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10489,7 +10490,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10512,13 +10513,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10569,7 +10570,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10590,7 +10591,7 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10601,11 +10602,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10624,16 +10625,16 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10683,7 +10684,7 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10704,7 +10705,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10715,11 +10716,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10738,16 +10739,16 @@
         <v>53</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10797,7 +10798,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10829,7 +10830,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10852,13 +10853,13 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10909,7 +10910,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>52</v>
@@ -10930,7 +10931,7 @@
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10941,7 +10942,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10964,13 +10965,13 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10997,63 +10998,63 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>498</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11076,13 +11077,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11109,14 +11110,14 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11154,7 +11155,7 @@
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11165,7 +11166,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11188,13 +11189,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11245,7 +11246,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11266,7 +11267,7 @@
         <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11277,11 +11278,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11300,13 +11301,13 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11357,7 +11358,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11378,7 +11379,7 @@
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11389,7 +11390,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11412,13 +11413,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11469,7 +11470,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11487,10 +11488,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11501,7 +11502,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11524,13 +11525,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11581,7 +11582,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11599,10 +11600,10 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11613,7 +11614,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11636,16 +11637,16 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11695,7 +11696,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11716,7 +11717,7 @@
         <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VAMedication.xlsx
+++ b/docs/StructureDefinition-VAMedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$90</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3215" uniqueCount="550">
   <si>
     <t>Path</t>
   </si>
@@ -1020,8 +1020,8 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.bounds[x]</t>
   </si>
   <si>
-    <t>Duration
-RangePeriod</t>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Length/Range of lengths, or (Start and/or end) limits</t>
@@ -1036,10 +1036,68 @@
     <t>IVL(TS) used in a QSI</t>
   </si>
   <si>
+    <t>boundsPeriod</t>
+  </si>
+  <si>
     <t>MedicationDispense.dosageInstruction.timing.repeat.bounds[x].id</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.timing.repeat.bounds[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstruction.timing.repeat.bounds[x].start</t>
+  </si>
+  <si>
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.dosageInstruction.timing.repeat.bounds[x].end</t>
+  </si>
+  <si>
+    <t>EXPIRATION DATE</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>The date the medication expires.  This is required to be put on the labels of medication sent to a nursing home.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has a end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @EXPIRATION DATE   52-26</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.timing.repeat.count</t>
@@ -1813,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1825,7 +1883,7 @@
     <col min="1" max="1" width="68.94140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="17.6328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1857,7 +1915,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="16.921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="40.5" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.84375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.35546875" customWidth="true" bestFit="true"/>
@@ -7374,16 +7432,14 @@
         <v>41</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>323</v>
@@ -7418,9 +7474,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7438,16 +7496,16 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7498,7 +7556,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7519,7 +7577,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7534,14 +7592,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7553,17 +7611,15 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7600,22 +7656,26 @@
         <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AE51" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7644,14 +7704,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7660,23 +7720,21 @@
         <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7712,25 +7770,25 @@
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7745,7 +7803,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>333</v>
+        <v>184</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7756,7 +7814,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7779,15 +7837,17 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7836,7 +7896,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7845,7 +7905,7 @@
         <v>52</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>41</v>
@@ -7857,24 +7917,26 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7882,7 +7944,7 @@
         <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7891,95 +7953,95 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="Q54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="O54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8007,7 +8069,7 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>347</v>
@@ -8016,10 +8078,10 @@
         <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8068,7 +8130,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8089,7 +8151,7 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8100,7 +8162,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8123,13 +8185,13 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8156,13 +8218,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8180,7 +8242,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8201,7 +8263,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8235,18 +8297,22 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
@@ -8292,7 +8358,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8313,7 +8379,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8324,7 +8390,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8347,16 +8413,20 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8404,28 +8474,28 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8436,7 +8506,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8459,13 +8529,13 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8492,13 +8562,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8516,7 +8586,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8537,7 +8607,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8548,7 +8618,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8571,18 +8641,18 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
@@ -8628,7 +8698,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8649,7 +8719,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8660,7 +8730,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8683,13 +8753,13 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8716,13 +8786,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8740,7 +8810,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8761,7 +8831,7 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8772,7 +8842,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8783,7 +8853,7 @@
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8795,17 +8865,15 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8830,11 +8898,13 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>41</v>
@@ -8852,13 +8922,13 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8873,7 +8943,7 @@
         <v>41</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8884,7 +8954,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8895,7 +8965,7 @@
         <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>41</v>
@@ -8907,17 +8977,15 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
@@ -8966,13 +9034,13 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>41</v>
@@ -8987,7 +9055,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8998,7 +9066,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9009,7 +9077,7 @@
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -9024,17 +9092,13 @@
         <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -9061,34 +9125,34 @@
         <v>124</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -9103,7 +9167,7 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -9114,7 +9178,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9125,7 +9189,7 @@
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>41</v>
@@ -9137,15 +9201,17 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K65" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9170,13 +9236,11 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9194,13 +9258,13 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
@@ -9215,7 +9279,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>401</v>
+        <v>184</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9226,7 +9290,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9237,7 +9301,7 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -9249,16 +9313,16 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9284,13 +9348,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>406</v>
+        <v>41</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9308,13 +9372,13 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
@@ -9329,7 +9393,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>409</v>
+        <v>184</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9340,7 +9404,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9351,7 +9415,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9363,18 +9427,20 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>411</v>
+        <v>71</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9398,13 +9464,13 @@
         <v>41</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>41</v>
@@ -9422,13 +9488,13 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>41</v>
@@ -9443,7 +9509,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9454,7 +9520,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9477,20 +9543,16 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9514,13 +9576,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>425</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9538,7 +9600,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9559,7 +9621,7 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9570,7 +9632,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9596,15 +9658,15 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9628,13 +9690,13 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9652,7 +9714,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9673,7 +9735,7 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9684,7 +9746,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9707,20 +9769,18 @@
         <v>53</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>430</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9747,10 +9807,10 @@
         <v>215</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9768,7 +9828,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9789,7 +9849,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9800,7 +9860,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9823,19 +9883,19 @@
         <v>53</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9860,13 +9920,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>41</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>41</v>
+        <v>444</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -9884,7 +9944,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9905,7 +9965,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9916,7 +9976,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9939,19 +9999,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>453</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9976,13 +10034,13 @@
         <v>41</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>41</v>
@@ -10000,7 +10058,7 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10021,7 +10079,7 @@
         <v>41</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10032,7 +10090,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10055,19 +10113,19 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -10092,13 +10150,13 @@
         <v>41</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>41</v>
+        <v>461</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>41</v>
@@ -10116,7 +10174,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10137,7 +10195,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10148,7 +10206,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10171,17 +10229,19 @@
         <v>53</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>220</v>
+        <v>465</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
@@ -10230,7 +10290,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10251,7 +10311,7 @@
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10262,7 +10322,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10285,19 +10345,19 @@
         <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>41</v>
@@ -10346,28 +10406,28 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10378,7 +10438,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10398,19 +10458,23 @@
         <v>41</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>41</v>
       </c>
@@ -10458,7 +10522,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10470,7 +10534,7 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10479,7 +10543,7 @@
         <v>41</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10490,7 +10554,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10510,19 +10574,21 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>181</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>182</v>
+        <v>488</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
       </c>
@@ -10570,7 +10636,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>183</v>
+        <v>490</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10591,7 +10657,7 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>184</v>
+        <v>485</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10602,18 +10668,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>41</v>
@@ -10622,21 +10688,23 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>98</v>
+        <v>492</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>99</v>
+        <v>493</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>186</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10684,13 +10752,13 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>187</v>
+        <v>497</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10705,7 +10773,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>184</v>
+        <v>498</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10716,40 +10784,38 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>104</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10798,19 +10864,19 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>191</v>
+        <v>499</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -10819,7 +10885,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>95</v>
+        <v>502</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10830,7 +10896,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10838,7 +10904,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>52</v>
@@ -10853,13 +10919,13 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>488</v>
+        <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>489</v>
+        <v>181</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>490</v>
+        <v>182</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10910,10 +10976,10 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>487</v>
+        <v>183</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>52</v>
@@ -10931,7 +10997,7 @@
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>491</v>
+        <v>184</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10942,18 +11008,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
@@ -10965,15 +11031,17 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>99</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -10998,13 +11066,13 @@
         <v>41</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>495</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>496</v>
+        <v>41</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11022,13 +11090,13 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
@@ -11043,22 +11111,22 @@
         <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>497</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11071,21 +11139,23 @@
         <v>41</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>499</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>41</v>
@@ -11110,13 +11180,13 @@
         <v>41</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>502</v>
+        <v>41</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>41</v>
@@ -11134,7 +11204,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>498</v>
+        <v>191</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11155,7 +11225,7 @@
         <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>503</v>
+        <v>95</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11166,7 +11236,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11174,10 +11244,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11189,13 +11259,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11246,13 +11316,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11267,7 +11337,7 @@
         <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11278,18 +11348,18 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>510</v>
+        <v>41</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11301,7 +11371,7 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>511</v>
+        <v>131</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>512</v>
@@ -11334,13 +11404,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>41</v>
+        <v>514</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>41</v>
+        <v>515</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11358,13 +11428,13 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11379,18 +11449,18 @@
         <v>41</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>514</v>
+        <v>217</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>41</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11401,7 +11471,7 @@
         <v>42</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11413,13 +11483,13 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>488</v>
+        <v>131</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11446,13 +11516,13 @@
         <v>41</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>41</v>
@@ -11470,13 +11540,13 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>41</v>
@@ -11488,10 +11558,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11502,7 +11572,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11513,7 +11583,7 @@
         <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>41</v>
@@ -11525,13 +11595,13 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11582,13 +11652,13 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11600,10 +11670,10 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>523</v>
+        <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11614,11 +11684,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>41</v>
+        <v>529</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11637,17 +11707,15 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11696,7 +11764,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11717,17 +11785,355 @@
         <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN90">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11737,7 +12143,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI89">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
